--- a/biology/Zoologie/Espadarana/Espadarana.xlsx
+++ b/biology/Zoologie/Espadarana/Espadarana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espadarana est un genre d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espadarana est un genre d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2014) :
 Espadarana andina (Rivero, 1968)
 Espadarana audax (Lynch &amp; Duellman, 1973)
 Espadarana callistomma (Guayasamin &amp; Trueb, 2007)
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est formé à partir de Espada, en l'honneur de Marcos Jiménez de la Espada, et du mot latin rana, la grenouille[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est formé à partir de Espada, en l'honneur de Marcos Jiménez de la Espada, et du mot latin rana, la grenouille.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guayasamin, Castroviejo-Fisher, Trueb, Ayarzagüena, Rada &amp; Vilà, 2009 : Phylogenetic systematics of Glassfrogs (Amphibia: Centrolenidae) and their sister taxon Allophryne ruthveni Zootaxa, no 2100, p. 1–97 (texte intégral).</t>
         </is>
